--- a/ExpOverview.xlsx
+++ b/ExpOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win-evs.uio.no\nesys\MAJAP\STUDENTS\Øvsthus_Martin\Paper I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvanswieten\Documents\GitHub_repositories\3d-point-clouds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A2D284-DD5A-49E0-971A-4D2C105AFF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C51D1-AE3C-47E3-AD73-056B04B0BCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17775" windowHeight="10590" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="12228" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="3" r:id="rId1"/>
@@ -1071,7 +1071,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1593,22 +1593,22 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.68359375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="7" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="39.68359375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.83984375" style="7" customWidth="1"/>
     <col min="12" max="12" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="7"/>
+    <col min="13" max="16384" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2991,22 +2991,22 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.41796875" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.15625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.578125" customWidth="1"/>
+    <col min="9" max="9" width="38.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3501,23 +3501,23 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.41796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="39.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.578125" customWidth="1"/>
+    <col min="11" max="11" width="13.83984375" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -4809,136 +4809,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="10:10">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="10:10">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="10:10">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="10:10">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="10:10">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="10:10">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="10:10">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="10:10">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="10:10">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="10:10">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="10:10">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="10:10">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="10:10">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="10:10">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="10:10">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="10:10">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="10:10">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="10:10">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="10:10">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="10:10">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="10:10">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="10:10">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="10:10">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J78" s="1"/>
     </row>
   </sheetData>
@@ -4955,21 +4955,21 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.41796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.68359375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.41796875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -6418,20 +6418,20 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.41796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="35.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.41796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.41796875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="35.41796875" customWidth="1"/>
+    <col min="10" max="10" width="13.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -7387,26 +7387,26 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I23"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.41796875" customWidth="1"/>
+    <col min="5" max="5" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26171875" customWidth="1"/>
+    <col min="8" max="8" width="37.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.41796875" customWidth="1"/>
+    <col min="10" max="10" width="14.15625" customWidth="1"/>
+    <col min="11" max="11" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -7444,7 +7444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -8295,21 +8295,21 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15625" customWidth="1"/>
+    <col min="3" max="3" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.41796875" customWidth="1"/>
+    <col min="5" max="5" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="45.15625" customWidth="1"/>
+    <col min="10" max="10" width="12.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -8747,7 +8747,7 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11">
         <v>16</v>
       </c>

--- a/ExpOverview.xlsx
+++ b/ExpOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvanswieten\Documents\GitHub_repositories\3d-point-clouds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C51D1-AE3C-47E3-AD73-056B04B0BCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A2C0BD-207A-44E9-8F92-B446569164EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="12228" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23028" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="337">
   <si>
     <t>expNumber</t>
   </si>
@@ -666,9 +666,6 @@
   </si>
   <si>
     <t>SSpn-SSpm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex </t>
   </si>
   <si>
     <t>M02_BDA</t>
@@ -1589,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2988,7 +2985,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3497,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4952,7 +4949,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4980,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -5009,25 +5006,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>18</v>
@@ -5044,25 +5041,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>18</v>
@@ -5079,25 +5076,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>18</v>
@@ -5114,25 +5111,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -5149,25 +5146,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>18</v>
@@ -5184,25 +5181,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>18</v>
@@ -5219,25 +5216,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>18</v>
@@ -5254,25 +5251,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>18</v>
@@ -5289,25 +5286,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>18</v>
@@ -5324,25 +5321,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>18</v>
@@ -5359,25 +5356,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>18</v>
@@ -5394,25 +5391,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>18</v>
@@ -5429,25 +5426,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>18</v>
@@ -5464,25 +5461,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>18</v>
@@ -5499,25 +5496,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>18</v>
@@ -5534,25 +5531,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>18</v>
@@ -5569,25 +5566,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>18</v>
@@ -5604,25 +5601,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="H19" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>18</v>
@@ -5639,25 +5636,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>18</v>
@@ -5674,25 +5671,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>18</v>
@@ -5709,25 +5706,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>18</v>
@@ -5744,25 +5741,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>18</v>
@@ -5779,25 +5776,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>18</v>
@@ -5814,25 +5811,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G25" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>18</v>
@@ -5849,25 +5846,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G26" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>18</v>
@@ -5884,25 +5881,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G27" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>18</v>
@@ -5919,25 +5916,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>18</v>
@@ -5954,25 +5951,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G29" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>18</v>
@@ -5989,25 +5986,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>18</v>
@@ -6024,25 +6021,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G31" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>18</v>
@@ -6059,25 +6056,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>18</v>
@@ -6094,25 +6091,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G33" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>18</v>
@@ -6129,25 +6126,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G34" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>18</v>
@@ -6164,25 +6161,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G35" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>18</v>
@@ -6199,25 +6196,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G36" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>18</v>
@@ -6234,25 +6231,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G37" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>18</v>
@@ -6269,25 +6266,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>18</v>
@@ -6304,25 +6301,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G39" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>18</v>
@@ -6339,25 +6336,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G40" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>18</v>
@@ -6374,25 +6371,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G41" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>18</v>
@@ -6415,7 +6412,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6471,25 +6468,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>18</v>
@@ -6506,25 +6503,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>18</v>
@@ -6541,25 +6538,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>18</v>
@@ -6576,25 +6573,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -6611,25 +6608,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>18</v>
@@ -6646,25 +6643,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>18</v>
@@ -6681,25 +6678,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>18</v>
@@ -6716,25 +6713,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>18</v>
@@ -6751,25 +6748,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>18</v>
@@ -6786,25 +6783,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>18</v>
@@ -6821,25 +6818,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>18</v>
@@ -6856,25 +6853,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>18</v>
@@ -6891,25 +6888,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>18</v>
@@ -6926,25 +6923,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>18</v>
@@ -6961,25 +6958,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>18</v>
@@ -6996,25 +6993,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>18</v>
@@ -7031,25 +7028,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>18</v>
@@ -7066,25 +7063,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>18</v>
@@ -7101,25 +7098,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>18</v>
@@ -7136,25 +7133,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>18</v>
@@ -7171,25 +7168,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>18</v>
@@ -7206,25 +7203,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>18</v>
@@ -7241,25 +7238,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>18</v>
@@ -7276,25 +7273,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G25" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>18</v>
@@ -7311,25 +7308,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G26" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>18</v>
@@ -7346,25 +7343,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G27" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>18</v>
@@ -7386,7 +7383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -7449,34 +7446,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L2" s="15">
         <v>3</v>
@@ -7487,34 +7484,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L3" s="15">
         <v>3</v>
@@ -7525,34 +7522,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L4" s="15">
         <v>5</v>
@@ -7563,28 +7560,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>85</v>
@@ -7601,28 +7598,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>122</v>
@@ -7639,28 +7636,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>115</v>
@@ -7677,34 +7674,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>132</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L8" s="15">
         <v>2</v>
@@ -7715,28 +7712,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>85</v>
@@ -7753,28 +7750,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>122</v>
@@ -7791,34 +7788,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>132</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L11" s="15">
         <v>3</v>
@@ -7829,28 +7826,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>122</v>
@@ -7867,28 +7864,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>122</v>
@@ -7905,28 +7902,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>122</v>
@@ -7943,34 +7940,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L15" s="15">
         <v>5</v>
@@ -7981,34 +7978,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>132</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L16" s="15">
         <v>4</v>
@@ -8019,28 +8016,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>122</v>
@@ -8057,34 +8054,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L18" s="15">
         <v>6</v>
@@ -8095,34 +8092,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>132</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L19" s="15">
         <v>6</v>
@@ -8133,28 +8130,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>122</v>
@@ -8171,34 +8168,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L21" s="15">
         <v>4</v>
@@ -8209,34 +8206,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>132</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L22" s="15">
         <v>3</v>
@@ -8247,28 +8244,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>122</v>
@@ -8352,22 +8349,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>196</v>
@@ -8388,22 +8385,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>196</v>
@@ -8424,25 +8421,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>18</v>
@@ -8460,25 +8457,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>18</v>
@@ -8496,25 +8493,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>18</v>
@@ -8532,25 +8529,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>18</v>
@@ -8570,25 +8567,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>18</v>
@@ -8608,25 +8605,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>18</v>
@@ -8644,25 +8641,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>18</v>
@@ -8680,25 +8677,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>18</v>
@@ -8716,25 +8713,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>18</v>
@@ -8752,25 +8749,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>18</v>
@@ -8788,25 +8785,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>18</v>
@@ -8824,25 +8821,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>18</v>
@@ -8860,25 +8857,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>18</v>
@@ -8896,25 +8893,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>18</v>

--- a/ExpOverview.xlsx
+++ b/ExpOverview.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvanswieten\Documents\GitHub_repositories\3d-point-clouds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A2C0BD-207A-44E9-8F92-B446569164EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2A9C72-EEC9-47AC-8B0E-8FA68B04BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23028" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="12228" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WT" sheetId="3" r:id="rId1"/>
-    <sheet name="transgenic" sheetId="1" r:id="rId2"/>
-    <sheet name="Nex-cKO" sheetId="2" r:id="rId3"/>
-    <sheet name="Rat_SM" sheetId="4" r:id="rId4"/>
-    <sheet name="Rat_barrel" sheetId="5" r:id="rId5"/>
-    <sheet name="Rat_cortex" sheetId="6" r:id="rId6"/>
-    <sheet name="Rat_SS" sheetId="7" r:id="rId7"/>
+    <sheet name="README" sheetId="8" r:id="rId1"/>
+    <sheet name="WT" sheetId="3" r:id="rId2"/>
+    <sheet name="transgenic" sheetId="1" r:id="rId3"/>
+    <sheet name="Nex-cKO" sheetId="2" r:id="rId4"/>
+    <sheet name="Rat_SM" sheetId="4" r:id="rId5"/>
+    <sheet name="Rat_barrel" sheetId="5" r:id="rId6"/>
+    <sheet name="Rat_cortex" sheetId="6" r:id="rId7"/>
+    <sheet name="Rat_SS" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Nex-cKO'!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Rat_barrel!$B$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Rat_cortex!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Rat_SM!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Rat_SS!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transgenic!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WT!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Nex-cKO'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Rat_barrel!$B$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Rat_cortex!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Rat_SM!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Rat_SS!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">transgenic!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WT!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="352">
   <si>
     <t>expNumber</t>
   </si>
@@ -1062,6 +1063,51 @@
   </si>
   <si>
     <t>R124_BDA</t>
+  </si>
+  <si>
+    <t>This overview Table contains the following metadata for each dataset:</t>
+  </si>
+  <si>
+    <t>Experiment number</t>
+  </si>
+  <si>
+    <t>Experiment name</t>
+  </si>
+  <si>
+    <t>genotype/strain</t>
+  </si>
+  <si>
+    <t>Genotype and strain name</t>
+  </si>
+  <si>
+    <t>Sex of the animal</t>
+  </si>
+  <si>
+    <t>Age at tracer injection timepoint</t>
+  </si>
+  <si>
+    <t>Age at euthanasia</t>
+  </si>
+  <si>
+    <t>Abreviated name of the brain region where the tracer was injected</t>
+  </si>
+  <si>
+    <t>Full name of the brain region where the tracer was injected</t>
+  </si>
+  <si>
+    <t>Hemisphere of tracer injection</t>
+  </si>
+  <si>
+    <t>Color name of the injection site and point clouds representing anterogradely labelled axons</t>
+  </si>
+  <si>
+    <t>RGB color code</t>
+  </si>
+  <si>
+    <t>Color coding of the injection site according to their distance from the anterolateral cerebral cortex towards frontal, medial, and occipital locations (fig3 A, C)</t>
+  </si>
+  <si>
+    <t>1:  (RGB 250 250 110); 2: ( RGB 156 223 124); 3: ( RGB 74 189 140); 4: ( RGB 0 150 142); 5: ( RGB 16 110 124); 6: (RGB 42 72 88)</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1198,13 +1244,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1268,6 +1400,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1287,10 +1466,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6169167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDAF37C-3EBB-4C06-87B0-23A750B5836A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="3213100"/>
+          <a:ext cx="7388367" cy="599695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1328,7 +1562,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1434,7 +1668,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1576,33 +1810,415 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3006A074-504F-4808-A627-E30A370247A1}">
+  <dimension ref="A2:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="4" max="4" width="119.7890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="45"/>
+      <c r="B16" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.68359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7890625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.62890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5234375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="7" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.68359375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.83984375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="39.62890625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5234375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.7890625" style="7" customWidth="1"/>
     <col min="12" max="12" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83984375" style="7"/>
+    <col min="13" max="16384" width="8.7890625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2980,7 +3596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -2990,17 +3606,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.41796875" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="12.47265625" customWidth="1"/>
+    <col min="2" max="2" width="11.5234375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="6" width="16.578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.5234375" style="7" customWidth="1"/>
     <col min="7" max="7" width="15.15625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5234375" customWidth="1"/>
     <col min="9" max="9" width="38.15625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7890625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3490,7 +4106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
@@ -3498,20 +4114,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5234375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.47265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.47265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.578125" customWidth="1"/>
-    <col min="11" max="11" width="13.83984375" customWidth="1"/>
+    <col min="8" max="8" width="39.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5234375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5234375" customWidth="1"/>
+    <col min="11" max="11" width="13.7890625" customWidth="1"/>
     <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83984375" style="1"/>
+    <col min="13" max="16384" width="8.7890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4944,29 +5560,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.41796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.68359375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.41796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.47265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.62890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.47265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.7890625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.47265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.26171875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.15625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.41796875" customWidth="1"/>
+    <col min="10" max="10" width="12.47265625" customWidth="1"/>
+    <col min="12" max="12" width="19.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5000,8 +5617,9 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5036,7 +5654,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5071,7 +5689,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5106,7 +5724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5141,7 +5759,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5176,7 +5794,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5211,7 +5829,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5246,7 +5864,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5281,7 +5899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5316,7 +5934,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5351,7 +5969,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5386,7 +6004,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5421,7 +6039,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5456,7 +6074,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5491,7 +6109,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5650,8 +6268,8 @@
       <c r="F20" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>211</v>
+      <c r="G20" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>212</v>
@@ -5685,8 +6303,8 @@
       <c r="F21" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>208</v>
+      <c r="G21" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>209</v>
@@ -6407,24 +7025,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.41796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.41796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.47265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.47265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.5234375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="35.41796875" customWidth="1"/>
+    <col min="7" max="7" width="15.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="35.47265625" customWidth="1"/>
     <col min="10" max="10" width="13.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7379,7 +7997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
@@ -7392,15 +8010,15 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.41796875" customWidth="1"/>
+    <col min="4" max="4" width="15.47265625" customWidth="1"/>
     <col min="5" max="5" width="14.15625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.26171875" customWidth="1"/>
-    <col min="8" max="8" width="37.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.41796875" customWidth="1"/>
+    <col min="8" max="8" width="37.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.47265625" customWidth="1"/>
     <col min="10" max="10" width="14.15625" customWidth="1"/>
-    <col min="11" max="11" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8284,7 +8902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -8294,16 +8912,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.15625" customWidth="1"/>
-    <col min="3" max="3" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.41796875" customWidth="1"/>
-    <col min="5" max="5" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.47265625" customWidth="1"/>
+    <col min="5" max="5" width="13.7890625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.62890625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.15625" customWidth="1"/>
-    <col min="10" max="10" width="12.83984375" customWidth="1"/>
+    <col min="10" max="10" width="12.7890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
